--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value144.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value144.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9431944337092273</v>
+        <v>0.9714423418045044</v>
       </c>
       <c r="B1">
-        <v>1.834315321994147</v>
+        <v>1.028986811637878</v>
       </c>
       <c r="C1">
-        <v>2.94882968576486</v>
+        <v>5.117161750793457</v>
       </c>
       <c r="D1">
-        <v>2.609196371851793</v>
+        <v>2.068168878555298</v>
       </c>
       <c r="E1">
-        <v>1.005105648941297</v>
+        <v>1.215786457061768</v>
       </c>
     </row>
   </sheetData>
